--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -2285,7 +2285,7 @@
         <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>125</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -475,6 +481,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,45 +503,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -556,1905 +572,2193 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.2</t>
+    <t>193.16</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -481,7 +481,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1711,7 +1711,7 @@
         <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>84</v>
@@ -2240,7 +2240,7 @@
         <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>104</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di acquisizione di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.16</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di acquisizione di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.16</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -573,2192 +576,2192 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -393,6 +399,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -472,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1024,7 +1033,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
@@ -1116,7 +1125,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1231,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
@@ -1294,19 +1303,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1317,19 +1326,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1340,19 +1349,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1363,19 +1372,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1386,19 +1395,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1409,19 +1418,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1441,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1464,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1556,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,7 +1579,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>94</v>
@@ -1579,10 +1588,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,7 +1602,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>95</v>
@@ -1602,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1648,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,7 +1671,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>98</v>
@@ -1671,10 +1680,10 @@
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,7 +1694,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>99</v>
@@ -1694,10 +1703,10 @@
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,7 +1717,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>100</v>
@@ -1717,10 +1726,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1832,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1855,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1878,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1901,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1924,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1947,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1970,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1993,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,7 +2016,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>90</v>
@@ -2016,10 +2025,10 @@
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,7 +2039,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>91</v>
@@ -2039,10 +2048,10 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2085,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2108,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2131,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2223,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2246,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2338,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2361,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2384,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2407,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2430,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2683,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2729,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,24 +2752,116 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -2643,7 +2643,7 @@
         <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>111</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -254,6 +254,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -321,6 +345,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -481,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -491,7 +521,7 @@
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1263,7 +1293,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
@@ -1286,7 +1316,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1309,7 +1339,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>38</v>
@@ -1326,19 +1356,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1349,19 +1379,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1372,19 +1402,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1395,19 +1425,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1418,19 +1448,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1441,19 +1471,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1494,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1517,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1540,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1563,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1586,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1609,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1747,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1839,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1970,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1993,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2177,7 +2207,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
@@ -2186,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,7 +2230,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
@@ -2209,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2223,7 +2253,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>98</v>
@@ -2232,10 +2262,10 @@
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2246,7 +2276,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>99</v>
@@ -2255,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,7 +2299,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>100</v>
@@ -2278,10 +2308,10 @@
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,7 +2322,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>101</v>
@@ -2301,10 +2331,10 @@
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2391,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2437,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2483,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2506,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2529,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2552,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2575,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2598,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2621,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2644,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2690,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2713,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2736,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2759,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2782,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2828,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2851,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2844,24 +2874,346 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -320,10 +326,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -511,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -879,7 +882,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
@@ -971,7 +974,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
@@ -1086,7 +1089,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>38</v>
@@ -1178,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1385,7 +1388,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>38</v>
@@ -1448,19 +1451,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1474,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1497,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1520,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1543,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1566,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1589,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1632,7 +1635,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>100</v>
@@ -1641,10 +1644,10 @@
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>101</v>
@@ -1664,10 +1667,10 @@
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2759,10 +2762,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2771,7 +2774,7 @@
         <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3173,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3196,24 +3199,93 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1158,7 +1164,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1181,7 +1187,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1411,7 +1417,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>38</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>107</v>
@@ -1851,10 +1857,10 @@
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1871,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>108</v>
@@ -1874,10 +1880,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -1897,10 +1903,10 @@
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>110</v>
@@ -1920,10 +1926,10 @@
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
@@ -1943,10 +1949,10 @@
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,7 +2377,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>102</v>
@@ -2380,10 +2386,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,7 +2400,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>103</v>
@@ -2403,10 +2409,10 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,7 +2515,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>106</v>
@@ -2518,10 +2524,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,16 +3254,16 @@
         <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3271,21 +3277,90 @@
         <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1828,7 +1834,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
@@ -1837,7 +1843,7 @@
         <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,7 +1857,7 @@
         <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
@@ -1860,7 +1866,7 @@
         <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,7 +1880,7 @@
         <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
@@ -1883,7 +1889,7 @@
         <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,7 +1903,7 @@
         <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
@@ -1906,7 +1912,7 @@
         <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,7 +1926,7 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
@@ -1929,7 +1935,7 @@
         <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,7 +1949,7 @@
         <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
@@ -1952,7 +1958,7 @@
         <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,7 +1972,7 @@
         <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
@@ -1975,7 +1981,7 @@
         <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,7 +1995,7 @@
         <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
@@ -1998,7 +2004,7 @@
         <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,16 +2018,16 @@
         <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,7 +2041,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2044,7 +2050,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,7 +2064,7 @@
         <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2067,7 +2073,7 @@
         <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,16 +2087,16 @@
         <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,7 +2110,7 @@
         <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
@@ -2113,7 +2119,7 @@
         <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,7 +2133,7 @@
         <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
@@ -2136,7 +2142,7 @@
         <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,7 +2156,7 @@
         <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
@@ -2159,7 +2165,7 @@
         <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,7 +2179,7 @@
         <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
@@ -2182,7 +2188,7 @@
         <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,10 +2208,10 @@
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2561,7 +2567,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>107</v>
@@ -2570,10 +2576,10 @@
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>109</v>
@@ -2616,10 +2622,10 @@
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>110</v>
@@ -2639,10 +2645,10 @@
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2653,7 +2659,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>111</v>
@@ -2662,10 +2668,10 @@
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>112</v>
@@ -2685,10 +2691,10 @@
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,7 +2705,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>113</v>
@@ -2708,10 +2714,10 @@
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3211,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3323,16 +3329,16 @@
         <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3346,21 +3352,67 @@
         <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,6 +384,81 @@
   </si>
   <si>
     <t>evento.padre.recapito</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -526,13 +601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
@@ -2987,7 +3062,7 @@
         <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>126</v>
@@ -2999,7 +3074,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
@@ -3007,22 +3082,22 @@
         <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
@@ -3030,22 +3105,22 @@
         <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
@@ -3053,22 +3128,22 @@
         <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
@@ -3076,22 +3151,22 @@
         <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
@@ -3099,7 +3174,7 @@
         <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
@@ -3108,13 +3183,13 @@
         <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
@@ -3137,7 +3212,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
@@ -3154,13 +3229,13 @@
         <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
@@ -3168,7 +3243,7 @@
         <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
@@ -3177,13 +3252,13 @@
         <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
@@ -3191,7 +3266,7 @@
         <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
@@ -3206,70 +3281,70 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3378,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3401,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3424,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,24 +3470,300 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -601,14 +607,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1521,7 +1527,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>94</v>
@@ -2145,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>95</v>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>96</v>
@@ -2168,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>97</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>118</v>
@@ -2306,10 +2312,10 @@
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2763,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,7 +2878,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>94</v>
@@ -2881,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>95</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
@@ -2904,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>97</v>
@@ -2918,19 +2924,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2993,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,7 +3039,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>118</v>
@@ -3042,10 +3048,10 @@
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,53 +3062,53 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>131</v>
@@ -3111,7 +3117,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>132</v>
@@ -3120,12 +3126,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>133</v>
@@ -3134,7 +3140,7 @@
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>134</v>
@@ -3143,12 +3149,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>135</v>
@@ -3157,7 +3163,7 @@
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>136</v>
@@ -3166,12 +3172,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>137</v>
@@ -3180,44 +3186,44 @@
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>140</v>
@@ -3226,44 +3232,44 @@
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>143</v>
@@ -3272,7 +3278,7 @@
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>144</v>
@@ -3281,12 +3287,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>145</v>
@@ -3295,7 +3301,7 @@
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>146</v>
@@ -3304,12 +3310,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>147</v>
@@ -3318,7 +3324,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>148</v>
@@ -3327,44 +3333,44 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>154</v>
@@ -3378,7 +3384,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>155</v>
@@ -3387,7 +3393,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>156</v>
@@ -3401,7 +3407,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>157</v>
@@ -3410,7 +3416,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>158</v>
@@ -3424,7 +3430,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>159</v>
@@ -3433,7 +3439,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>160</v>
@@ -3447,16 +3453,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>162</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>163</v>
@@ -3479,7 +3485,7 @@
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>164</v>
@@ -3493,7 +3499,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>165</v>
@@ -3502,7 +3508,7 @@
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>166</v>
@@ -3516,7 +3522,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>167</v>
@@ -3525,7 +3531,7 @@
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>168</v>
@@ -3539,19 +3545,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3568,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,16 +3591,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>154</v>
@@ -3608,7 +3614,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>155</v>
@@ -3617,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>156</v>
@@ -3631,19 +3637,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3654,16 +3660,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>164</v>
@@ -3677,16 +3683,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>166</v>
@@ -3700,16 +3706,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>168</v>
@@ -3726,16 +3732,16 @@
         <v>172</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>175</v>
@@ -3764,6 +3770,29 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -607,14 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1527,7 +1521,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1590,19 +1584,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1607,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1630,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1653,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1676,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1699,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1722,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1745,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1768,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1791,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1814,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1860,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1883,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1906,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,7 +2136,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>94</v>
@@ -2151,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>95</v>
@@ -2165,7 +2159,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>96</v>
@@ -2174,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>97</v>
@@ -2188,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,7 +2297,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>118</v>
@@ -2312,10 +2306,10 @@
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2878,7 +2872,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>94</v>
@@ -2887,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>95</v>
@@ -2901,7 +2895,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
@@ -2910,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>97</v>
@@ -2924,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2947,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2970,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2993,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3010,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3039,7 +3033,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>118</v>
@@ -3048,10 +3042,10 @@
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3062,53 +3056,53 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>131</v>
@@ -3117,7 +3111,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>132</v>
@@ -3126,12 +3120,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>133</v>
@@ -3140,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>134</v>
@@ -3149,12 +3143,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>135</v>
@@ -3163,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>136</v>
@@ -3172,12 +3166,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>137</v>
@@ -3186,44 +3180,44 @@
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>140</v>
@@ -3232,44 +3226,44 @@
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>143</v>
@@ -3278,7 +3272,7 @@
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>144</v>
@@ -3287,12 +3281,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>145</v>
@@ -3301,7 +3295,7 @@
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>146</v>
@@ -3310,12 +3304,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>147</v>
@@ -3324,7 +3318,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>148</v>
@@ -3333,44 +3327,44 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>154</v>
@@ -3384,7 +3378,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>155</v>
@@ -3393,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>156</v>
@@ -3407,7 +3401,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>157</v>
@@ -3416,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>158</v>
@@ -3430,7 +3424,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>159</v>
@@ -3439,7 +3433,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>160</v>
@@ -3453,16 +3447,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>162</v>
@@ -3476,7 +3470,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>163</v>
@@ -3485,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>164</v>
@@ -3499,7 +3493,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>165</v>
@@ -3508,7 +3502,7 @@
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>166</v>
@@ -3522,7 +3516,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>167</v>
@@ -3531,7 +3525,7 @@
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>168</v>
@@ -3545,19 +3539,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3562,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,16 +3585,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>154</v>
@@ -3614,7 +3608,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>155</v>
@@ -3623,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>156</v>
@@ -3637,19 +3631,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,16 +3654,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>164</v>
@@ -3683,16 +3677,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>166</v>
@@ -3706,16 +3700,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>168</v>
@@ -3732,16 +3726,16 @@
         <v>172</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3752,7 +3746,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>175</v>
@@ -3770,29 +3764,6 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1021,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
@@ -1044,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -1090,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -1113,7 +1125,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>38</v>
@@ -1205,7 +1217,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -1228,7 +1240,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
@@ -1251,7 +1263,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1274,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1550,7 +1562,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>38</v>
@@ -1573,7 +1585,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>38</v>
@@ -1613,19 +1625,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1648,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1671,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1694,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1717,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1740,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1763,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1786,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1809,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1832,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1855,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1878,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1901,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1924,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1947,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1970,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1993,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,7 +2039,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>113</v>
@@ -2036,10 +2048,10 @@
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2062,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,7 +2085,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -2082,10 +2094,10 @@
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,7 +2108,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>116</v>
@@ -2105,10 +2117,10 @@
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,7 +2131,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>117</v>
@@ -2128,10 +2140,10 @@
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2177,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2246,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2269,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2292,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2315,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2338,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2361,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2384,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2407,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2430,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2453,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2476,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2499,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2522,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2545,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2568,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2591,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2614,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2637,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2660,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,7 +2683,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>109</v>
@@ -2680,10 +2692,10 @@
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2706,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2717,7 +2729,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>111</v>
@@ -2726,10 +2738,10 @@
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2752,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2775,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2798,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2821,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2844,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2867,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2890,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2901,19 +2913,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2924,19 +2936,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2947,19 +2959,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2970,19 +2982,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2993,19 +3005,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3028,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3051,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3074,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3085,10 +3097,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
@@ -3097,21 +3109,21 @@
         <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
@@ -3120,21 +3132,21 @@
         <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
@@ -3143,21 +3155,21 @@
         <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
@@ -3166,21 +3178,21 @@
         <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
@@ -3189,329 +3201,329 @@
         <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3534,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,19 +3603,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3614,19 +3626,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3637,19 +3649,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,19 +3672,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,19 +3695,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3706,19 +3718,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3729,19 +3741,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3752,19 +3764,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3775,24 +3787,162 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="B144" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_003.xlsx
@@ -332,6 +332,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -414,9 +417,6 @@
   </si>
   <si>
     <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione - Descrizione</t>
@@ -1689,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -1712,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -1804,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
@@ -1827,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
@@ -1835,7 +1835,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -1850,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
@@ -1858,7 +1858,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
@@ -1881,7 +1881,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
@@ -1904,7 +1904,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
@@ -1919,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
@@ -1927,7 +1927,7 @@
         <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
@@ -1942,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
@@ -1950,7 +1950,7 @@
         <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
@@ -1965,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
@@ -1988,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
@@ -2011,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
@@ -2019,7 +2019,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -2034,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
@@ -2042,7 +2042,7 @@
         <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
@@ -2051,13 +2051,13 @@
         <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
@@ -2080,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
@@ -2088,7 +2088,7 @@
         <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
@@ -2111,7 +2111,7 @@
         <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
@@ -2134,7 +2134,7 @@
         <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
@@ -2149,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
@@ -2157,7 +2157,7 @@
         <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
@@ -2172,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
@@ -2180,7 +2180,7 @@
         <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
@@ -2203,7 +2203,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
@@ -2226,7 +2226,7 @@
         <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
@@ -2241,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
@@ -2264,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
@@ -2287,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
@@ -2310,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
@@ -2333,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
@@ -2379,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
@@ -2410,7 +2410,7 @@
         <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
@@ -2419,13 +2419,13 @@
         <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
@@ -2433,27 +2433,27 @@
         <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -2462,7 +2462,7 @@
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>39</v>
@@ -2471,12 +2471,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>40</v>
@@ -2485,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>41</v>
@@ -2494,12 +2494,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>44</v>
@@ -2508,7 +2508,7 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>45</v>
@@ -2517,12 +2517,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>46</v>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>47</v>
@@ -2540,12 +2540,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>48</v>
@@ -2554,7 +2554,7 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>49</v>
@@ -2563,12 +2563,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>50</v>
@@ -2577,7 +2577,7 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>51</v>
@@ -2586,12 +2586,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>52</v>
@@ -2600,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>53</v>
@@ -2609,21 +2609,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>55</v>
@@ -2632,21 +2632,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>57</v>
@@ -2655,21 +2655,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>59</v>
@@ -2678,21 +2678,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>61</v>
@@ -2701,21 +2701,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>63</v>
@@ -2724,21 +2724,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>65</v>
@@ -2747,12 +2747,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>66</v>
@@ -2761,7 +2761,7 @@
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>67</v>
@@ -2770,12 +2770,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>68</v>
@@ -2784,7 +2784,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>69</v>
@@ -2793,21 +2793,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>71</v>
@@ -2816,35 +2816,35 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
@@ -2853,7 +2853,7 @@
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2862,21 +2862,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>75</v>
@@ -2885,21 +2885,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>77</v>
@@ -2908,21 +2908,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>79</v>
@@ -2931,21 +2931,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>81</v>
@@ -2954,21 +2954,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>83</v>
@@ -2977,21 +2977,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>85</v>
@@ -3000,21 +3000,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>87</v>
@@ -3023,12 +3023,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>98</v>
@@ -3037,7 +3037,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>99</v>
@@ -3046,12 +3046,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>100</v>
@@ -3060,7 +3060,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>101</v>
@@ -3069,12 +3069,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>102</v>
@@ -3083,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>103</v>
@@ -3092,12 +3092,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>88</v>
@@ -3106,7 +3106,7 @@
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>89</v>
@@ -3115,12 +3115,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>90</v>
@@ -3129,7 +3129,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>91</v>
@@ -3138,12 +3138,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>92</v>
@@ -3152,7 +3152,7 @@
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>93</v>
@@ -3161,12 +3161,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>94</v>
@@ -3175,7 +3175,7 @@
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>95</v>
@@ -3184,81 +3184,81 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>135</v>
@@ -3267,7 +3267,7 @@
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>136</v>
@@ -3276,12 +3276,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>137</v>
@@ -3290,7 +3290,7 @@
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>138</v>
@@ -3299,12 +3299,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>139</v>
@@ -3313,7 +3313,7 @@
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>140</v>
@@ -3322,12 +3322,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>141</v>
@@ -3336,7 +3336,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>142</v>
@@ -3345,12 +3345,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>143</v>
@@ -3359,7 +3359,7 @@
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>17</v>
@@ -3368,12 +3368,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>144</v>
@@ -3382,7 +3382,7 @@
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>145</v>
@@ -3391,12 +3391,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>146</v>
@@ -3405,7 +3405,7 @@
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>20</v>
@@ -3414,12 +3414,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>147</v>
@@ -3428,7 +3428,7 @@
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>148</v>
@@ -3437,12 +3437,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>149</v>
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>150</v>
@@ -3460,12 +3460,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>151</v>
@@ -3474,7 +3474,7 @@
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>152</v>
@@ -3483,12 +3483,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>153</v>
@@ -3497,7 +3497,7 @@
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>154</v>
@@ -3506,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126">
